--- a/medicine/Enfance/Ian_De_Haes/Ian_De_Haes.xlsx
+++ b/medicine/Enfance/Ian_De_Haes/Ian_De_Haes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ian De Haes est un illustrateur et auteur belge né à Leuven en 1983. Il illustre et écrit essentiellement des albums jeunesse.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Leuven en 1983, il a grandi dans les Ardennes Belges. En 2004, Ian de Haes est diplômé en infographie et techniques d’animations à La Haute École Albert Jacquard de Namur. Il enchaîne avec des études en illustration à l’école supérieure des arts Saint Luc à Bruxelles[1].
-Pendant 10 ans, il exerce le métier de libraire à mi-temps, spécialisé en littérature jeunesse[1].
-En 2008, il rencontre sa compagne Charlotte Bellière. Ensemble, ils proposent un premier album, elle à l’écriture, lui aux dessins, publié aux éditions Alice jeunesse : J’ai perdu ma pantoufle[1].
-Ils collaborent sur de nombreux albums, dont Le géant ou l’incroyable aventure des émotions, lauréat du Prix Scam[2]. Ils créent également une trilogie basée sur les aventures de Saint Nicolas (Saint Nicolas, c’est qui celui-là ?)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Leuven en 1983, il a grandi dans les Ardennes Belges. En 2004, Ian de Haes est diplômé en infographie et techniques d’animations à La Haute École Albert Jacquard de Namur. Il enchaîne avec des études en illustration à l’école supérieure des arts Saint Luc à Bruxelles.
+Pendant 10 ans, il exerce le métier de libraire à mi-temps, spécialisé en littérature jeunesse.
+En 2008, il rencontre sa compagne Charlotte Bellière. Ensemble, ils proposent un premier album, elle à l’écriture, lui aux dessins, publié aux éditions Alice jeunesse : J’ai perdu ma pantoufle.
+Ils collaborent sur de nombreux albums, dont Le géant ou l’incroyable aventure des émotions, lauréat du Prix Scam. Ils créent également une trilogie basée sur les aventures de Saint Nicolas (Saint Nicolas, c’est qui celui-là ?).
 Ian de Haes illustre d’autres auteur.rices, tant en romans (La classe des Mammouths de Jérôme
-Poncin[4],[5] qu’en albums (Fanny et la nuit de Maylis Daufresne[6].
+Poncin, qu’en albums (Fanny et la nuit de Maylis Daufresne.
 Seul, Ian a écrit et illustré des albums comme Les colères de Simon ou Superlumineuse qui a reçu le prix des Libraires du Québec en 2020.
-Édité essentiellement par Alice éditions, ses albums sont traduits dans de nombreuses langues[3],[7],[8].
+Édité essentiellement par Alice éditions, ses albums sont traduits dans de nombreuses langues.
 </t>
         </is>
       </c>
@@ -551,20 +565,59 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteur et illustrateur
-Les colères de Simon, Alice jeunesse, 2016  (ISBN 978-2-87426-294-4)
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les colères de Simon, Alice jeunesse, 2016  (ISBN 978-2-87426-294-4)
 Superlumineuse, Alice jeunesse, 2018  (ISBN 9782874263675)
-Chance ou malchance ? , Alice jeunesse, 2023  (ISBN 9782874265310)
-Illustrateur
-J'ai perdu ma pantoufle, texte de Charlotte Bellière, Alice Jeunesse, 2011  (ISBN 978-2-87426-146-6)
+Chance ou malchance ? , Alice jeunesse, 2023  (ISBN 9782874265310)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ian_De_Haes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ian_De_Haes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>J'ai perdu ma pantoufle, texte de Charlotte Bellière, Alice Jeunesse, 2011  (ISBN 978-2-87426-146-6)
 La petite vieille du rez-de-chaussée, texte de Charlotte Bellière, Alice Jeunesse, 2012  (ISBN 9782874261749)
-Les tracaneux, texte de Charlotte Bellière et Julie Baivier, édité par le service SAIE Tremplin (non commercialisé), 2013[9]
+Les tracaneux, texte de Charlotte Bellière et Julie Baivier, édité par le service SAIE Tremplin (non commercialisé), 2013
 Imagine, texte de Charlotte Bellière, Alice Jeunesse, 2014  (ISBN 9782874262210)
 Belle-Fleur – Une curieuse petite gueule noire, texte de Sandrine Place, La Renaissance du Livre, 2016  (ISBN 9782507053864)
 Saint-Nicolas, c’est qui celui-là ?, texte de Charlotte Bellière, Alice Jeunesse, 2017  (ISBN 9782874263408)
 Papillon de jour (texte de Christian Merveille), Alice jeunesse, 2018  (ISBN 9782874263521)
 Being yourself is the best, Golden Apple (Taîwan), 2019  (ISBN 9789869529488)
-Le géant ou l’incroyable aventure des émotions[10], texte de Charlotte Bellière, Alice jeunesse, 2019  (ISBN 9782874263910)
+Le géant ou l’incroyable aventure des émotions, texte de Charlotte Bellière, Alice jeunesse, 2019  (ISBN 9782874263910)
 Père fouettard, c’est qui celui-là ?, texte de Charlotte Bellière, Alice jeunesse, 2019  (ISBN 9782874264016)
 Fanny et la nuit, texte de Maylis Daufresne, Alice jeunesse, 2020  (ISBN 9782874264122)
 Cette nuit on part en vacances, texte de Charlotte Bellière, Alice jeunesse, 2020  (ISBN 9782874264221)
@@ -578,39 +631,41 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Ian_De_Haes</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ian_De_Haes</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2019 : Prix Scam jeunesse pour Le géant ou l'incroyable aventure des émotions[2].
-2020 : Prix des libraires du Québec pour Superlumineuse[11].
-2020 : Finaliste du Golden Pinwheel Young illustrators Competition[12].
-2021 : Prix Tatoulu Rose pour Le géant ou l'incroyable aventure des émotions[13].
-2021 : Prix littéraire du Mois de la littérature pour la jeunesse 2021 de la ville de Rueil-Malmaison pour Cette nuit on part en vacances[14].
-2022 : Prix des incorruptibles CE2/CM1 pour La classe des mammouths[4].
-2022 : Prix Tatoulu Vert pour La classe des mammouths[15].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2019 : Prix Scam jeunesse pour Le géant ou l'incroyable aventure des émotions.
+2020 : Prix des libraires du Québec pour Superlumineuse.
+2020 : Finaliste du Golden Pinwheel Young illustrators Competition.
+2021 : Prix Tatoulu Rose pour Le géant ou l'incroyable aventure des émotions.
+2021 : Prix littéraire du Mois de la littérature pour la jeunesse 2021 de la ville de Rueil-Malmaison pour Cette nuit on part en vacances.
+2022 : Prix des incorruptibles CE2/CM1 pour La classe des mammouths.
+2022 : Prix Tatoulu Vert pour La classe des mammouths.</t>
         </is>
       </c>
     </row>
